--- a/InputData/dist-heat/BFoHPbF/BAU Frac of Heat Provided by Fuel.xlsx
+++ b/InputData/dist-heat/BFoHPbF/BAU Frac of Heat Provided by Fuel.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="22624"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="10411"/>
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\jeff-nonadmin\CodeRepositories\eps-us\InputData\dist-heat\BFoHPbF\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/users/nathaniyer/library/containers/com.microsoft.excel/data/state-eps-data-repository/pa/dist-heat/bfohpbf/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{54263B1F-4804-432C-9849-66BD0A8B2C3A}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E87B742D-6290-5D46-B247-410007A157B2}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1125" yWindow="1470" windowWidth="22170" windowHeight="14490" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="1120" yWindow="1480" windowWidth="22180" windowHeight="14500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="About" sheetId="1" r:id="rId1"/>
@@ -204,7 +204,7 @@
       <protection locked="0"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="13">
+  <cellXfs count="14">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
@@ -226,6 +226,7 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
@@ -565,21 +566,24 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:B20"/>
+  <dimension ref="A1:C20"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="2" max="2" width="58.140625" customWidth="1"/>
+    <col min="2" max="2" width="58.1640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
         <v>26</v>
       </c>
-    </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C1" s="13">
+        <v>44307</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A3" s="1" t="s">
         <v>0</v>
       </c>
@@ -587,72 +591,72 @@
         <v>1</v>
       </c>
     </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:3" x14ac:dyDescent="0.2">
       <c r="B4" s="2">
         <v>2014</v>
       </c>
     </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:3" x14ac:dyDescent="0.2">
       <c r="B5" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:3" x14ac:dyDescent="0.2">
       <c r="B6" s="11" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:3" x14ac:dyDescent="0.2">
       <c r="B7" s="3" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="9" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A9" s="1" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="10" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A10" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="11" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A11" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="12" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A12" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="13" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A13" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="15" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A15" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="16" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A16" t="s">
         <v>25</v>
       </c>
     </row>
-    <row r="18" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A18" s="1" t="s">
         <v>33</v>
       </c>
     </row>
-    <row r="19" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A19" t="s">
         <v>34</v>
       </c>
     </row>
-    <row r="20" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A20" t="s">
         <v>35</v>
       </c>
@@ -672,15 +676,15 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="16.42578125" customWidth="1"/>
-    <col min="2" max="2" width="19.42578125" customWidth="1"/>
-    <col min="3" max="3" width="17.42578125" customWidth="1"/>
-    <col min="4" max="4" width="12.42578125" customWidth="1"/>
+    <col min="1" max="1" width="16.5" customWidth="1"/>
+    <col min="2" max="2" width="19.5" customWidth="1"/>
+    <col min="3" max="3" width="17.5" customWidth="1"/>
+    <col min="4" max="4" width="12.5" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A1" s="4" t="s">
         <v>14</v>
       </c>
@@ -692,7 +696,7 @@
       <c r="G1" s="5"/>
       <c r="H1" s="5"/>
     </row>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:8" x14ac:dyDescent="0.2">
       <c r="B2">
         <v>2000</v>
       </c>
@@ -715,7 +719,7 @@
         <v>2012</v>
       </c>
     </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
         <v>9</v>
       </c>
@@ -741,7 +745,7 @@
         <v>8544</v>
       </c>
     </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
         <v>10</v>
       </c>
@@ -767,7 +771,7 @@
         <v>12343.4</v>
       </c>
     </row>
-    <row r="5" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
         <v>11</v>
       </c>
@@ -793,7 +797,7 @@
         <v>199.7</v>
       </c>
     </row>
-    <row r="6" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
         <v>12</v>
       </c>
@@ -819,7 +823,7 @@
         <v>4055.7</v>
       </c>
     </row>
-    <row r="7" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
         <v>13</v>
       </c>
@@ -845,7 +849,7 @@
         <v>2641.4</v>
       </c>
     </row>
-    <row r="9" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:8" x14ac:dyDescent="0.2">
       <c r="B9" s="6" t="s">
         <v>16</v>
       </c>
@@ -856,7 +860,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="10" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A10" t="s">
         <v>9</v>
       </c>
@@ -873,7 +877,7 @@
         <v>0.63892242256425869</v>
       </c>
     </row>
-    <row r="11" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A11" t="s">
         <v>10</v>
       </c>
@@ -890,7 +894,7 @@
         <v>0.17030120384160674</v>
       </c>
     </row>
-    <row r="12" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A12" t="s">
         <v>11</v>
       </c>
@@ -907,7 +911,7 @@
         <v>3.3910556428748871E-2</v>
       </c>
     </row>
-    <row r="13" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A13" t="s">
         <v>12</v>
       </c>
@@ -924,7 +928,7 @@
         <v>0.15686581716538556</v>
       </c>
     </row>
-    <row r="14" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A14" t="s">
         <v>13</v>
       </c>
@@ -951,13 +955,13 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="24.140625" customWidth="1"/>
-    <col min="2" max="2" width="9.42578125" customWidth="1"/>
+    <col min="1" max="1" width="24.1640625" customWidth="1"/>
+    <col min="2" max="2" width="9.5" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:37" ht="30" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:37" ht="32" x14ac:dyDescent="0.2">
       <c r="A1" s="12" t="s">
         <v>32</v>
       </c>
@@ -1070,7 +1074,7 @@
         <v>2050</v>
       </c>
     </row>
-    <row r="2" spans="1:37" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:37" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
         <v>18</v>
       </c>
@@ -1218,7 +1222,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:37" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:37" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
         <v>19</v>
       </c>
@@ -1367,7 +1371,7 @@
         <v>0.17030120384160674</v>
       </c>
     </row>
-    <row r="4" spans="1:37" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:37" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
         <v>20</v>
       </c>
@@ -1516,7 +1520,7 @@
         <v>0.63892242256425869</v>
       </c>
     </row>
-    <row r="5" spans="1:37" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:37" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
         <v>21</v>
       </c>
@@ -1665,7 +1669,7 @@
         <v>0.15686581716538556</v>
       </c>
     </row>
-    <row r="6" spans="1:37" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:37" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
         <v>22</v>
       </c>
@@ -1814,7 +1818,7 @@
         <v>3.3910556428748871E-2</v>
       </c>
     </row>
-    <row r="7" spans="1:37" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:37" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
         <v>23</v>
       </c>
@@ -1962,7 +1966,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="8" spans="1:37" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:37" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
         <v>27</v>
       </c>
@@ -2110,7 +2114,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="9" spans="1:37" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:37" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
         <v>28</v>
       </c>
@@ -2258,7 +2262,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="10" spans="1:37" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:37" x14ac:dyDescent="0.2">
       <c r="A10" t="s">
         <v>29</v>
       </c>
@@ -2406,7 +2410,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="11" spans="1:37" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:37" x14ac:dyDescent="0.2">
       <c r="A11" t="s">
         <v>30</v>
       </c>

--- a/InputData/dist-heat/BFoHPbF/BAU Frac of Heat Provided by Fuel.xlsx
+++ b/InputData/dist-heat/BFoHPbF/BAU Frac of Heat Provided by Fuel.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/users/nathaniyer/library/containers/com.microsoft.excel/data/state-eps-data-repository/pa/dist-heat/bfohpbf/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/users/nathaniyer/library/containers/com.microsoft.excel/data/state-eps-data-repository/template_state/dist-heat/bfohpbf/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E87B742D-6290-5D46-B247-410007A157B2}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B6A13973-88A8-D449-8280-F3D15156AB2D}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="1120" yWindow="1480" windowWidth="22180" windowHeight="14500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
